--- a/example/myapp/excel/副本表_Dungeon.xlsx
+++ b/example/myapp/excel/副本表_Dungeon.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\data2config\example\myapp\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="副本表_Dungeon" sheetId="1" r:id="rId1"/>
@@ -23,14 +28,14 @@
     <author>星辰吾心</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="0"/>
+            <family val="2"/>
           </rPr>
           <t>dreamsummit:</t>
         </r>
@@ -38,7 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="0"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 1.</t>
@@ -47,6 +52,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">林朔
@@ -56,7 +62,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="0"/>
+            <family val="2"/>
           </rPr>
           <t>2.</t>
         </r>
@@ -64,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">司嘉鸣
@@ -73,7 +80,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="0"/>
+            <family val="2"/>
           </rPr>
           <t>3.</t>
         </r>
@@ -81,6 +88,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">星辰
@@ -90,7 +98,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="0"/>
+            <family val="2"/>
           </rPr>
           <t>4.</t>
         </r>
@@ -98,20 +106,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>贺夺</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>dreamsummit:</t>
         </r>
@@ -119,7 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -128,19 +137,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>千分比概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="W1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YC:</t>
@@ -149,6 +160,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -156,13 +168,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="2">
+    <comment ref="Y1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>星辰吾心:</t>
@@ -171,6 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,13 +194,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1">
+    <comment ref="AA1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YC:</t>
@@ -195,6 +210,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -202,13 +218,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1">
+    <comment ref="AB1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YC:
@@ -218,6 +235,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -230,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -428,20 +446,90 @@
   </si>
   <si>
     <t>章节1-3</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是Note1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是Note2</t>
+  </si>
+  <si>
+    <t>这是Note3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,11 +540,13 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -464,154 +554,50 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,194 +610,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -834,335 +634,66 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1452,17 +983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AC6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="24" spans="1:29">
+    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,44 +1044,47 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1603,44 +1136,44 @@
       <c r="Q2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1692,9 +1225,6 @@
       <c r="Q3" t="s">
         <v>58</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
       <c r="S3" t="s">
         <v>58</v>
       </c>
@@ -1704,126 +1234,132 @@
       <c r="U3" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>59</v>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AA3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="AC3" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="AD3" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>1</v>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1832,208 +1368,300 @@
         <v>61</v>
       </c>
       <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="4">
-        <v>700</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1200</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1700</v>
-      </c>
-      <c r="J5" s="4">
-        <v>101</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="3">
-        <v>102</v>
-      </c>
-      <c r="N5" s="3">
-        <v>500</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>200</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>101</v>
-      </c>
-      <c r="T5" s="3">
-        <v>20</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="3">
-        <v>111</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:29">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="4">
+        <v>700</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1700</v>
+      </c>
+      <c r="J6" s="4">
+        <v>101</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>102</v>
+      </c>
+      <c r="N6" s="3">
+        <v>500</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>200</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>101</v>
+      </c>
+      <c r="U6" s="3">
+        <v>20</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="3">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
         <v>12</v>
       </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>